--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H2">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N2">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O2">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P2">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q2">
-        <v>1.13755316465888</v>
+        <v>3.599038175196443</v>
       </c>
       <c r="R2">
-        <v>1.13755316465888</v>
+        <v>32.39134357676799</v>
       </c>
       <c r="S2">
-        <v>0.1201430308252663</v>
+        <v>0.2279326222653333</v>
       </c>
       <c r="T2">
-        <v>0.1201430308252663</v>
+        <v>0.2279326222653332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H3">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N3">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O3">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P3">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q3">
-        <v>0.6030714713478444</v>
+        <v>2.035079474652445</v>
       </c>
       <c r="R3">
-        <v>0.6030714713478444</v>
+        <v>18.315715271872</v>
       </c>
       <c r="S3">
-        <v>0.06369358076878094</v>
+        <v>0.1288847126914873</v>
       </c>
       <c r="T3">
-        <v>0.06369358076878094</v>
+        <v>0.1288847126914873</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H4">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I4">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J4">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N4">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O4">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P4">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q4">
-        <v>2.371934139195012</v>
+        <v>2.489988993670444</v>
       </c>
       <c r="R4">
-        <v>2.371934139195012</v>
+        <v>22.409900943034</v>
       </c>
       <c r="S4">
-        <v>0.2505125608667815</v>
+        <v>0.157694832094451</v>
       </c>
       <c r="T4">
-        <v>0.2505125608667815</v>
+        <v>0.157694832094451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H5">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I5">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J5">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.723522984255894</v>
+        <v>0.7887676666666668</v>
       </c>
       <c r="N5">
-        <v>0.723522984255894</v>
+        <v>2.366303</v>
       </c>
       <c r="O5">
-        <v>0.3464684222391499</v>
+        <v>0.3612064215071951</v>
       </c>
       <c r="P5">
-        <v>0.3464684222391499</v>
+        <v>0.361206421507195</v>
       </c>
       <c r="Q5">
-        <v>1.257476007016752</v>
+        <v>1.407966586198445</v>
       </c>
       <c r="R5">
-        <v>1.257476007016752</v>
+        <v>12.671699275786</v>
       </c>
       <c r="S5">
-        <v>0.132808719070594</v>
+        <v>0.08916868908640133</v>
       </c>
       <c r="T5">
-        <v>0.132808719070594</v>
+        <v>0.08916868908640131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +776,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -779,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H6">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I6">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J6">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.36475674865576</v>
+        <v>1.394935666666666</v>
       </c>
       <c r="N6">
-        <v>1.36475674865576</v>
+        <v>4.184806999999999</v>
       </c>
       <c r="O6">
-        <v>0.6535315777608501</v>
+        <v>0.638793578492805</v>
       </c>
       <c r="P6">
-        <v>0.6535315777608501</v>
+        <v>0.6387935784928049</v>
       </c>
       <c r="Q6">
-        <v>2.678361540808535</v>
+        <v>0.09153474848955553</v>
       </c>
       <c r="R6">
-        <v>2.678361540808535</v>
+        <v>0.8238127364059998</v>
       </c>
       <c r="S6">
-        <v>0.2828759860688024</v>
+        <v>0.005797036384723359</v>
       </c>
       <c r="T6">
-        <v>0.2828759860688024</v>
+        <v>0.005797036384723358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +838,433 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.196858</v>
+      </c>
+      <c r="I7">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J7">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N7">
+        <v>2.366303</v>
+      </c>
+      <c r="O7">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P7">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q7">
+        <v>0.05175840844155556</v>
+      </c>
+      <c r="R7">
+        <v>0.465825675974</v>
+      </c>
+      <c r="S7">
+        <v>0.003277939601104673</v>
+      </c>
+      <c r="T7">
+        <v>0.003277939601104672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.660166</v>
+      </c>
+      <c r="H8">
+        <v>1.980498</v>
+      </c>
+      <c r="I8">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J8">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N8">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.638793578492805</v>
+      </c>
+      <c r="P8">
+        <v>0.6387935784928049</v>
+      </c>
+      <c r="Q8">
+        <v>0.9208890993206665</v>
+      </c>
+      <c r="R8">
+        <v>8.288001893885999</v>
+      </c>
+      <c r="S8">
+        <v>0.05832132281071557</v>
+      </c>
+      <c r="T8">
+        <v>0.05832132281071555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.660166</v>
+      </c>
+      <c r="H9">
+        <v>1.980498</v>
+      </c>
+      <c r="I9">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J9">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N9">
+        <v>2.366303</v>
+      </c>
+      <c r="O9">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P9">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q9">
+        <v>0.5207175954326667</v>
+      </c>
+      <c r="R9">
+        <v>4.686458358894001</v>
+      </c>
+      <c r="S9">
+        <v>0.03297784608249908</v>
+      </c>
+      <c r="T9">
+        <v>0.03297784608249906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="H7">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="I7">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="J7">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.723522984255894</v>
-      </c>
-      <c r="N7">
-        <v>0.723522984255894</v>
-      </c>
-      <c r="O7">
-        <v>0.3464684222391499</v>
-      </c>
-      <c r="P7">
-        <v>0.3464684222391499</v>
-      </c>
-      <c r="Q7">
-        <v>1.419927863944054</v>
-      </c>
-      <c r="R7">
-        <v>1.419927863944054</v>
-      </c>
-      <c r="S7">
-        <v>0.1499661223997749</v>
-      </c>
-      <c r="T7">
-        <v>0.1499661223997749</v>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.180848</v>
+      </c>
+      <c r="I10">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J10">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N10">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.638793578492805</v>
+      </c>
+      <c r="P10">
+        <v>0.6387935784928049</v>
+      </c>
+      <c r="Q10">
+        <v>0.08409044181511111</v>
+      </c>
+      <c r="R10">
+        <v>0.7568139763359999</v>
+      </c>
+      <c r="S10">
+        <v>0.005325576995115515</v>
+      </c>
+      <c r="T10">
+        <v>0.005325576995115515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.180848</v>
+      </c>
+      <c r="I11">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J11">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N11">
+        <v>2.366303</v>
+      </c>
+      <c r="O11">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P11">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q11">
+        <v>0.04754901832711112</v>
+      </c>
+      <c r="R11">
+        <v>0.4279411649440001</v>
+      </c>
+      <c r="S11">
+        <v>0.003011352451922593</v>
+      </c>
+      <c r="T11">
+        <v>0.003011352451922593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H12">
+        <v>6.238909</v>
+      </c>
+      <c r="I12">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J12">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.394935666666666</v>
+      </c>
+      <c r="N12">
+        <v>4.184806999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.638793578492805</v>
+      </c>
+      <c r="P12">
+        <v>0.6387935784928049</v>
+      </c>
+      <c r="Q12">
+        <v>2.900958895062555</v>
+      </c>
+      <c r="R12">
+        <v>26.10863005556299</v>
+      </c>
+      <c r="S12">
+        <v>0.1837221879424663</v>
+      </c>
+      <c r="T12">
+        <v>0.1837221879424663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.238909</v>
+      </c>
+      <c r="I13">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J13">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7887676666666668</v>
+      </c>
+      <c r="N13">
+        <v>2.366303</v>
+      </c>
+      <c r="O13">
+        <v>0.3612064215071951</v>
+      </c>
+      <c r="P13">
+        <v>0.361206421507195</v>
+      </c>
+      <c r="Q13">
+        <v>1.640349898158556</v>
+      </c>
+      <c r="R13">
+        <v>14.763149083427</v>
+      </c>
+      <c r="S13">
+        <v>0.1038858815937801</v>
+      </c>
+      <c r="T13">
+        <v>0.10388588159378</v>
       </c>
     </row>
   </sheetData>
